--- a/MSTR.xlsx
+++ b/MSTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29AF949-173D-446B-982E-7C608270A529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65D5E67-A257-4FFF-95C3-8F59BEFB1E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{1767D6F5-A742-4EDC-9AEB-A46C4D6C34C3}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{1767D6F5-A742-4EDC-9AEB-A46C4D6C34C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,14 +132,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -155,12 +153,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,19 +193,20 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -533,189 +545,191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590760D5-34F9-4163-9200-FDB3BE5FFBBD}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="13.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>337.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>232.7</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <f>+I2*I3</f>
         <v>78536.25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <f>46.343+I13</f>
         <v>46342.027890000005</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <f>4211.949+0.509</f>
         <v>4212.4579999999996</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <f>+I4-I5+I6</f>
         <v>36406.680109999994</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>471.10700000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>98270</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>64511</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <f>+I9*I11/1000</f>
         <v>30391.583677000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <f>+I9*I10/1000</f>
         <v>46295.684890000004</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <f>+I13-I12</f>
         <v>15904.101213000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="7">
         <f>+I12/I14</f>
         <v>1.9109274563820018</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <f>+I4-I13</f>
         <v>32240.565109999996</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="7">
         <f>I13/I17-1</f>
         <v>0.43594520542819382</v>
       </c>
